--- a/Översikt NYKÖPING.xlsx
+++ b/Översikt NYKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45943.45181712963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45540.64393518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45244</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45981</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44384</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45624</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>45978</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>45846.66900462963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45952.6</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45869</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44364</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>45924.45384259259</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>45954.29069444445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>46009.69998842593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45540.56883101852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45546.44880787037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>45518</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44937</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>45328</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>45924.44457175926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45448.52262731481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>45603.68148148148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>45986.73616898148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>46043.41762731481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>45540.61594907408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>45335</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44271</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44406</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>44348</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>44462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>45210</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>44480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45922.53443287037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>45922</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>45952.57625</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45954.60826388889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44911</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>45973.4609837963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>44406</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44631</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>45982</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>46030.61767361111</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44363</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>45540.60987268519</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>44406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>44812</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45485</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44729</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>44792</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>44263</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>45547</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44873.3884375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44488.48640046296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44238</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44531</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44403</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>44817</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45027</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>44806</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>45813.39127314815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45892</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>45919.42976851852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>45832.40953703703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>45226</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45940.41657407407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>45440</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>45946.60702546296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>45950.38049768518</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>45252</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>45357</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45981.49908564815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>45987.60164351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>45993.35012731481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>45978</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>46007</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>45435</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>45390.67849537037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>46013</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>45677</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45103</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>45056</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44621</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>45289</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>44446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>45385.59928240741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45603.69032407407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>45636</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45145</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>45328</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44349</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44283.88116898148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44274</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44285.57488425926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44560</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44870</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44811.41642361111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44238</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44266</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44256</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44264</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44505</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44264</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44656</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>44522</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44271</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44267</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44510</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44466</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44648</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44494</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>44767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44705.71707175926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44775</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44504</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44733.39394675926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44418</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44753</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
         <v>44873.38078703704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>44652.44121527778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         <v>44659</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>44425</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44285</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44525</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44364</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44581</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44790</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44416</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44873.38539351852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44705.69604166667</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44623</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44431</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44425</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44430</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44690</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44830.91241898148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44396</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44804.68011574074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44659</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44614</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44613</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44530</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44239</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44258</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44261</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44237</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>44237</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44272</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44676.50108796296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44812</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44502</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44354</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44416</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44416</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44430</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44476</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44530</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44264</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>44783</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>44425</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44498</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44505</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44466</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44505</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44427</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44416</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44454</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44446</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44767</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44662</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44718.44672453704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44470</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44316</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44887.38490740741</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44747</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44784</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44783</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44733.37920138889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44733.38643518519</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44804</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44733.3975462963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44613</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44420</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44614</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44881.43841435185</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44440</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44525.48111111111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44812.67331018519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44830</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44326</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44813.53872685185</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44679</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44582.64112268519</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44853</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44578</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44704.5418287037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44711.460625</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44709.48592592592</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>44722.62962962963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44539</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44440</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>44658</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>44652.50168981482</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>44522</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44522</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44882</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44862</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44531</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44256</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44245</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44530</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44425</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>44238</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>44462</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>44413</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>44246</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44440</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44537</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44719</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44748</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>44813.5283449074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>44525.45300925926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44250</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44256</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44466</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44709.46103009259</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44709.47613425926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44708</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44537</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44713</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>44729</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>44475</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>44348.90090277778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>44446</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>44627</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>44505</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>44463</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>44462</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>45365.45710648148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>45443.54708333333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18855,7 +18855,7 @@
         <v>44491</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44774</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>45268.4309375</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44865</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>45370</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44382</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>45424</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>45425</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>45301</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44578</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44509</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>45110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>45210.7621875</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>45210</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44515.40481481481</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>45378.34151620371</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44620.7231712963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44529</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>44579</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45352</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>44837</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>45143</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>45062</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45205</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44582.63854166667</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>45713.34657407407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44358</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44846.6333912037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44454</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>45201</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>45272.4568287037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>45258</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45721.61918981482</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45721.62387731481</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45419</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45419</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45044.63796296297</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>44839</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44957.73273148148</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45672.32315972223</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44251</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44363</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45424</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>45443.54967592593</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>44733.48971064815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>45335</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44968.38077546296</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44978</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>45148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>45166</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44977.44368055555</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44990</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44964</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>45247</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>45244</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>45393.53303240741</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45146</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44543</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>45159</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44525.34483796296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44267</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22608,7 +22608,7 @@
         <v>45540.55361111111</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45271</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>45351</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22846,7 +22846,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44825</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>44965</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44935.59042824074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45559.48292824074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>45545</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>45553</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>45677</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>45161</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44859</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44879</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>44397.39152777778</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>45239</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>45729.41048611111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44623</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>45335</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44744.68890046296</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>45315</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44433</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>45803.28027777778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>45603.67677083334</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>45163</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>45801.4565162037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>45802</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>45145.5899537037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>45218</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>45166.57472222222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>45160</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44339</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45033</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>45229</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44529</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>45730.51428240741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>45720.51685185185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44970</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45672</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45810.48511574074</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45810.49662037037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45813.38466435186</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>45813</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25340,7 +25340,7 @@
         <v>45854</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25397,7 +25397,7 @@
         <v>44266</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>45424</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45278</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25573,7 +25573,7 @@
         <v>45518.68938657407</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>45733</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45202.41581018519</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45888</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45895.52841435185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45817.43488425926</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25982,7 +25982,7 @@
         <v>45817.30131944444</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>45817.52033564815</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45132.64674768518</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26168,7 +26168,7 @@
         <v>45721.46049768518</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45161</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>45817.43222222223</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45624</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>45854</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26463,7 +26463,7 @@
         <v>45817.40743055556</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45817.42873842592</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>44425</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26644,7 +26644,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26701,7 +26701,7 @@
         <v>45216</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26758,7 +26758,7 @@
         <v>45897.65988425926</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26820,7 +26820,7 @@
         <v>44980</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26877,7 +26877,7 @@
         <v>44976</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26934,7 +26934,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26991,7 +26991,7 @@
         <v>45900.33557870371</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45819.66016203703</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45819.64758101852</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>45819.64652777778</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>45819.65033564815</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27296,7 +27296,7 @@
         <v>45819.65243055556</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>45819.64578703704</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45819.65145833333</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>45819.66092592593</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>45162</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27606,7 +27606,7 @@
         <v>45819.65354166667</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>45043</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>45821.36927083333</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         <v>45903.38063657407</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27839,7 +27839,7 @@
         <v>45685</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>45370</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27963,7 +27963,7 @@
         <v>45820.56608796296</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>45820</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>45820.30832175926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>45743.70403935185</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44310.46975694445</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45329</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>45359.38408564815</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>45721.64368055556</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>45820.5670949074</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>45258</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>45905.34798611111</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>44510</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>45070</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>45908.28657407407</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28853,7 +28853,7 @@
         <v>45908.43563657408</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28910,7 +28910,7 @@
         <v>44678</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         <v>44812</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>45733.69909722222</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>45008.46658564815</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>45826</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44579</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>45705</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>45183</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>45733.69351851852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>45915.66289351852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>45826.32295138889</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>45379.62061342593</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29656,7 +29656,7 @@
         <v>44810</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>45915.79974537037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29770,7 +29770,7 @@
         <v>45831.54910879629</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>45831.55167824074</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>45831</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>45919.43037037037</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>45831.55019675926</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44620</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>45831.5509837963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>44375</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>45832.41319444445</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>45001</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>45582.36425925926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>45730.74708333334</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44811</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44810</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>45855</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>44774</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45924.44690972222</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45924.43694444445</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44817</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45832.58648148148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44830</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45924.43239583333</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>44965</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45924.44197916667</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45834.90304398148</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>44251</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45855</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>45926.60075231481</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>45834.81365740741</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>45559</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>45747.46189814815</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>45729.40054398148</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>45729.40241898148</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>45834.81833333334</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>45834.9077662037</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>45931.72109953704</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44890</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31934,7 +31934,7 @@
         <v>45930</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31991,7 +31991,7 @@
         <v>45855</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32053,7 +32053,7 @@
         <v>44904</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>45931.7371412037</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44838</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>45933.66715277778</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32281,7 +32281,7 @@
         <v>44839</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32338,7 +32338,7 @@
         <v>44840</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32395,7 +32395,7 @@
         <v>44711.46961805555</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32452,7 +32452,7 @@
         <v>45855</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>45932.31585648148</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         <v>44965</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>45365.46444444444</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>45933.45298611111</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>45933.44259259259</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45855</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32876,7 +32876,7 @@
         <v>45933.47145833333</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32933,7 +32933,7 @@
         <v>45936.61704861111</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32990,7 +32990,7 @@
         <v>44967</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33047,7 +33047,7 @@
         <v>45387.57589120371</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33104,7 +33104,7 @@
         <v>45841.33006944445</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>45936.61511574074</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33218,7 +33218,7 @@
         <v>45841.40429398148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>44370</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33337,7 +33337,7 @@
         <v>45937.36054398148</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>44865</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>44414</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44960</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>45939.65427083334</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>45842.38688657407</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33694,7 +33694,7 @@
         <v>45940.59440972222</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45524</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         <v>45943.34979166667</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33875,7 +33875,7 @@
         <v>45842.39219907407</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33932,7 +33932,7 @@
         <v>45440</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>45940.40561342592</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34056,7 +34056,7 @@
         <v>45842.38885416667</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34113,7 +34113,7 @@
         <v>45940.3683912037</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>45702</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>45844.94479166667</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>45844.94641203704</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44931.84092592593</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44853</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>45335</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34527,7 +34527,7 @@
         <v>45842.38351851852</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34584,7 +34584,7 @@
         <v>45938</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>45945</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44880</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45166.58883101852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34822,7 +34822,7 @@
         <v>45356</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34879,7 +34879,7 @@
         <v>45944.52729166667</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34936,7 +34936,7 @@
         <v>45096</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34993,7 +34993,7 @@
         <v>44536</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>45946.61488425926</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>45706</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35174,7 +35174,7 @@
         <v>44767.70469907407</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35231,7 +35231,7 @@
         <v>45187</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>45946.65184027778</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35345,7 +35345,7 @@
         <v>45945.84612268519</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35407,7 +35407,7 @@
         <v>45945.83292824074</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         <v>44676</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35526,7 +35526,7 @@
         <v>45741</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>45743.6546875</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>45737.43103009259</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35702,7 +35702,7 @@
         <v>45854.54884259259</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35764,7 +35764,7 @@
         <v>45854.54319444444</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>45370</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>45900.31365740741</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35945,7 +35945,7 @@
         <v>45854</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36002,7 +36002,7 @@
         <v>45713</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36064,7 +36064,7 @@
         <v>44784</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>45854.58997685185</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44553</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>45950.4405787037</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         <v>45951.36939814815</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36364,7 +36364,7 @@
         <v>45900.34761574074</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>45860</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36483,7 +36483,7 @@
         <v>44938.65421296296</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>45860</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44881.66858796297</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>45863.31188657408</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36716,7 +36716,7 @@
         <v>45863</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>44825.65760416666</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>44988</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>44944</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>45058.61591435185</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>45954.27431712963</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>45820</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37130,7 +37130,7 @@
         <v>45954.42796296296</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37192,7 +37192,7 @@
         <v>45954.6296412037</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37254,7 +37254,7 @@
         <v>45216</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44607.459375</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37368,7 +37368,7 @@
         <v>44964.60866898148</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37425,7 +37425,7 @@
         <v>44995.58079861111</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37482,7 +37482,7 @@
         <v>45873.38168981481</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37539,7 +37539,7 @@
         <v>45798</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37601,7 +37601,7 @@
         <v>44964.61883101852</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37658,7 +37658,7 @@
         <v>45170</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37715,7 +37715,7 @@
         <v>44634</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37772,7 +37772,7 @@
         <v>45076</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37834,7 +37834,7 @@
         <v>45798</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>45072</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37953,7 +37953,7 @@
         <v>44858</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>45905.3440625</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>45350.66584490741</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>45092</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>45729.40546296296</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>45098</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38300,7 +38300,7 @@
         <v>45964.33553240741</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>45964.43212962963</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38424,7 +38424,7 @@
         <v>45964.6134837963</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>44278</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38543,7 +38543,7 @@
         <v>44278</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38600,7 +38600,7 @@
         <v>45840.48537037037</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38657,7 +38657,7 @@
         <v>45027</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38714,7 +38714,7 @@
         <v>45761</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38771,7 +38771,7 @@
         <v>45343.55482638889</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>44943</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44943</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>45138</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>45970.7487962963</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>45419</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39118,7 +39118,7 @@
         <v>45971.59018518519</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44650</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>45970.84542824074</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39299,7 +39299,7 @@
         <v>45970.82457175926</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39361,7 +39361,7 @@
         <v>45970.86018518519</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>44740.79188657407</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>45970.80259259259</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39542,7 +39542,7 @@
         <v>45364</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39599,7 +39599,7 @@
         <v>45882.36824074074</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39656,7 +39656,7 @@
         <v>45410</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39713,7 +39713,7 @@
         <v>44430</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39775,7 +39775,7 @@
         <v>45972.64583333334</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39837,7 +39837,7 @@
         <v>45106</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39894,7 +39894,7 @@
         <v>45973.70010416667</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39956,7 +39956,7 @@
         <v>44404</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40018,7 +40018,7 @@
         <v>44404</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40080,7 +40080,7 @@
         <v>45972.34512731482</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40142,7 +40142,7 @@
         <v>45972.37108796297</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40199,7 +40199,7 @@
         <v>44537</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40256,7 +40256,7 @@
         <v>44938.51252314815</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44974.44780092593</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44960</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>44239</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40494,7 +40494,7 @@
         <v>44783</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40551,7 +40551,7 @@
         <v>44977</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40613,7 +40613,7 @@
         <v>44837</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40670,7 +40670,7 @@
         <v>45440</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40732,7 +40732,7 @@
         <v>45974.64811342592</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>45974.27130787037</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>45352</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>45352</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40980,7 +40980,7 @@
         <v>44690</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41037,7 +41037,7 @@
         <v>45702</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41094,7 +41094,7 @@
         <v>44998</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41151,7 +41151,7 @@
         <v>44837</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41208,7 +41208,7 @@
         <v>44837</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41265,7 +41265,7 @@
         <v>44988</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>45720.84736111111</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41379,7 +41379,7 @@
         <v>45202.41826388889</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41436,7 +41436,7 @@
         <v>44466</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41493,7 +41493,7 @@
         <v>45729.39240740741</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41550,7 +41550,7 @@
         <v>45721.60896990741</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41607,7 +41607,7 @@
         <v>45721.61415509259</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41664,7 +41664,7 @@
         <v>45979.3952662037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41721,7 +41721,7 @@
         <v>45224</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41778,7 +41778,7 @@
         <v>45224</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41835,7 +41835,7 @@
         <v>45978.38457175926</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41897,7 +41897,7 @@
         <v>45978</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41954,7 +41954,7 @@
         <v>45978</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42011,7 +42011,7 @@
         <v>45162</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42068,7 +42068,7 @@
         <v>45075</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42130,7 +42130,7 @@
         <v>45349.71461805556</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42187,7 +42187,7 @@
         <v>45980.30935185185</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42244,7 +42244,7 @@
         <v>45980.329375</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>44525</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45384</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>44957</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45982.7109375</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>46027.44545138889</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45982.28105324074</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42658,7 +42658,7 @@
         <v>45982</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         <v>44578</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45743.69769675926</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45743.70009259259</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>44379</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45729.41755787037</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45112</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>44936.74096064815</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45985.67518518519</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45603.67597222222</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43233,7 +43233,7 @@
         <v>45986.7494212963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43295,7 +43295,7 @@
         <v>45986.56260416667</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44475.45990740741</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43414,7 +43414,7 @@
         <v>45986.51681712963</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43471,7 +43471,7 @@
         <v>45986.5222337963</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43528,7 +43528,7 @@
         <v>45986.51385416667</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43585,7 +43585,7 @@
         <v>45986.52648148148</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43642,7 +43642,7 @@
         <v>45987.47385416667</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43704,7 +43704,7 @@
         <v>44936</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43761,7 +43761,7 @@
         <v>45985.67907407408</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43818,7 +43818,7 @@
         <v>45986.74057870371</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43880,7 +43880,7 @@
         <v>45986.5184837963</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43937,7 +43937,7 @@
         <v>45986.5219212963</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43994,7 +43994,7 @@
         <v>44445</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44051,7 +44051,7 @@
         <v>46030.60665509259</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44108,7 +44108,7 @@
         <v>45721.65471064814</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44165,7 +44165,7 @@
         <v>45328</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44222,7 +44222,7 @@
         <v>45989.49159722222</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44279,7 +44279,7 @@
         <v>45989.71277777778</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44341,7 +44341,7 @@
         <v>45916.43809027778</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>46030.33498842592</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44460,7 +44460,7 @@
         <v>46030.34722222222</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44522,7 +44522,7 @@
         <v>46030.61884259259</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44579,7 +44579,7 @@
         <v>46030.60493055556</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44636,7 +44636,7 @@
         <v>45989.48905092593</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44693,7 +44693,7 @@
         <v>44414.37789351852</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44750,7 +44750,7 @@
         <v>45604.60871527778</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44807,7 +44807,7 @@
         <v>45987.61929398148</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44869,7 +44869,7 @@
         <v>45329</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44926,7 +44926,7 @@
         <v>45993.35203703704</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44988,7 +44988,7 @@
         <v>45993.57234953704</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45045,7 +45045,7 @@
         <v>44425</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45102,7 +45102,7 @@
         <v>45414.52494212963</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45159,7 +45159,7 @@
         <v>45993.55981481481</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45216,7 +45216,7 @@
         <v>45993.56157407408</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45273,7 +45273,7 @@
         <v>45931</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45330,7 +45330,7 @@
         <v>44616.86403935185</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45387,7 +45387,7 @@
         <v>45993.37518518518</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45449,7 +45449,7 @@
         <v>46034.58453703704</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45511,7 +45511,7 @@
         <v>45993.56743055556</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44645.64319444444</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45625,7 +45625,7 @@
         <v>44593</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45702,7 +45702,7 @@
         <v>46036.68469907407</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45759,7 +45759,7 @@
         <v>46036.80012731482</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45816,7 +45816,7 @@
         <v>44468</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>45630.56158564815</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>46036.39115740741</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>44698</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46049,7 +46049,7 @@
         <v>45603</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46111,7 +46111,7 @@
         <v>45603</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>46030</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>44727</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46292,7 +46292,7 @@
         <v>44235</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46354,7 +46354,7 @@
         <v>44549.75226851852</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46411,7 +46411,7 @@
         <v>46041.85635416667</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46473,7 +46473,7 @@
         <v>45999.47252314815</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46530,7 +46530,7 @@
         <v>45029</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46587,7 +46587,7 @@
         <v>45061</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46649,7 +46649,7 @@
         <v>45061</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         <v>44579</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46763,7 +46763,7 @@
         <v>45461</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46820,7 +46820,7 @@
         <v>44517</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>45999</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>45090</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46996,7 +46996,7 @@
         <v>45999.45918981481</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47053,7 +47053,7 @@
         <v>45210</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47110,7 +47110,7 @@
         <v>45419</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47167,7 +47167,7 @@
         <v>45343</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47229,7 +47229,7 @@
         <v>45999</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47291,7 +47291,7 @@
         <v>46043.5558912037</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47348,7 +47348,7 @@
         <v>45149</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45978</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45373.48542824074</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>45418</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47591,7 +47591,7 @@
         <v>45418</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47653,7 +47653,7 @@
         <v>45660</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47710,7 +47710,7 @@
         <v>45603</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47767,7 +47767,7 @@
         <v>44475</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47824,7 +47824,7 @@
         <v>44475</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47881,7 +47881,7 @@
         <v>46041.87228009259</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47943,7 +47943,7 @@
         <v>44579</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48000,7 +48000,7 @@
         <v>46001.40962962963</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48062,7 +48062,7 @@
         <v>44336</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48119,7 +48119,7 @@
         <v>45398</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48176,7 +48176,7 @@
         <v>46043.55282407408</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48233,7 +48233,7 @@
         <v>45143</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48290,7 +48290,7 @@
         <v>45558.32922453704</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48352,7 +48352,7 @@
         <v>46043.60672453704</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48409,7 +48409,7 @@
         <v>46042</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         <v>44916.67027777778</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45166</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48585,7 +48585,7 @@
         <v>46045.43084490741</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48642,7 +48642,7 @@
         <v>46003</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48699,7 +48699,7 @@
         <v>45978</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>45348</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48818,7 +48818,7 @@
         <v>45327</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>46007</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>46049.67630787037</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48994,7 +48994,7 @@
         <v>46049.67348379629</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         <v>46049.68626157408</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49108,7 +49108,7 @@
         <v>44812</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49165,7 +49165,7 @@
         <v>45279</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49222,7 +49222,7 @@
         <v>44432</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49279,7 +49279,7 @@
         <v>44960</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49336,7 +49336,7 @@
         <v>44960</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49393,7 +49393,7 @@
         <v>45435</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49455,7 +49455,7 @@
         <v>45604.61385416667</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49512,7 +49512,7 @@
         <v>46007</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49569,7 +49569,7 @@
         <v>46006.43814814815</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49631,7 +49631,7 @@
         <v>45630.55130787037</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>46007</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>46049.66806712963</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>46049.67916666667</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>45911</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49921,7 +49921,7 @@
         <v>46006.43637731481</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49983,7 +49983,7 @@
         <v>46050.46560185185</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50040,7 +50040,7 @@
         <v>45546.34533564815</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50102,7 +50102,7 @@
         <v>45741</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50164,7 +50164,7 @@
         <v>44879</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         <v>46009.37207175926</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50283,7 +50283,7 @@
         <v>46009.36378472222</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50340,7 +50340,7 @@
         <v>46050.46745370371</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50397,7 +50397,7 @@
         <v>44783</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50454,7 +50454,7 @@
         <v>44858</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50511,7 +50511,7 @@
         <v>44942</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50568,7 +50568,7 @@
         <v>44294</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50625,7 +50625,7 @@
         <v>44294</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50687,7 +50687,7 @@
         <v>45056</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50744,7 +50744,7 @@
         <v>44430</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50806,7 +50806,7 @@
         <v>44911</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50863,7 +50863,7 @@
         <v>45005.33341435185</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50920,7 +50920,7 @@
         <v>44530</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50977,7 +50977,7 @@
         <v>44959</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51034,7 +51034,7 @@
         <v>45162</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51096,7 +51096,7 @@
         <v>46010.59240740741</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51153,7 +51153,7 @@
         <v>46013</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51210,7 +51210,7 @@
         <v>46013</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51267,7 +51267,7 @@
         <v>44755</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51324,7 +51324,7 @@
         <v>44938</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51381,7 +51381,7 @@
         <v>45712.46146990741</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>46010.63642361111</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45085</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51562,7 +51562,7 @@
         <v>44790.56490740741</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51619,7 +51619,7 @@
         <v>46010.5390625</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51676,7 +51676,7 @@
         <v>46053.32077546296</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51733,7 +51733,7 @@
         <v>45069</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51795,7 +51795,7 @@
         <v>45474.63457175926</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51852,7 +51852,7 @@
         <v>45624</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51909,7 +51909,7 @@
         <v>46055</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51966,7 +51966,7 @@
         <v>44992</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52023,7 +52023,7 @@
         <v>45530</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52080,7 +52080,7 @@
         <v>44419</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52137,7 +52137,7 @@
         <v>44798</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52194,7 +52194,7 @@
         <v>44728.40604166667</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52251,7 +52251,7 @@
         <v>45986</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52308,7 +52308,7 @@
         <v>45674</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52365,7 +52365,7 @@
         <v>44799</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52422,7 +52422,7 @@
         <v>44881</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52479,7 +52479,7 @@
         <v>45148</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>44525.90890046296</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52593,7 +52593,7 @@
         <v>44525.9234375</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52650,7 +52650,7 @@
         <v>44846.63041666667</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52707,7 +52707,7 @@
         <v>45222</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52769,7 +52769,7 @@
         <v>45202.41700231482</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52826,7 +52826,7 @@
         <v>44960.37513888889</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52883,7 +52883,7 @@
         <v>44960.4335300926</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52940,7 +52940,7 @@
         <v>44575</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52997,7 +52997,7 @@
         <v>45546.32984953704</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53059,7 +53059,7 @@
         <v>45019.65358796297</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53116,7 +53116,7 @@
         <v>45051</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53178,7 +53178,7 @@
         <v>45146</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53240,7 +53240,7 @@
         <v>45174</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53302,7 +53302,7 @@
         <v>45307</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53364,7 +53364,7 @@
         <v>44938.52150462963</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53421,7 +53421,7 @@
         <v>44938.45053240741</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53478,7 +53478,7 @@
         <v>45330</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53535,7 +53535,7 @@
         <v>45075</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53597,7 +53597,7 @@
         <v>44725</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53654,7 +53654,7 @@
         <v>44606</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53716,7 +53716,7 @@
         <v>44525.48533564815</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53778,7 +53778,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53835,7 +53835,7 @@
         <v>45733.61880787037</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53897,7 +53897,7 @@
         <v>44575.41842592593</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53954,7 +53954,7 @@
         <v>44879</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54016,7 +54016,7 @@
         <v>45096</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54078,7 +54078,7 @@
         <v>44958</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54135,7 +54135,7 @@
         <v>44946</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54192,7 +54192,7 @@
         <v>45166</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54254,7 +54254,7 @@
         <v>44494</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54311,7 +54311,7 @@
         <v>44435.57420138889</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54368,7 +54368,7 @@
         <v>44237</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54430,7 +54430,7 @@
         <v>45110</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54487,7 +54487,7 @@
         <v>44430</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54544,7 +54544,7 @@
         <v>45114</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54601,7 +54601,7 @@
         <v>44456</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54658,7 +54658,7 @@
         <v>45170</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54715,7 +54715,7 @@
         <v>44901.48960648148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54777,7 +54777,7 @@
         <v>44350</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54834,7 +54834,7 @@
         <v>45762.87655092592</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54891,7 +54891,7 @@
         <v>44382</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54953,7 +54953,7 @@
         <v>44649</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55010,7 +55010,7 @@
         <v>44462</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55072,7 +55072,7 @@
         <v>44944</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55134,7 +55134,7 @@
         <v>45520</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55191,7 +55191,7 @@
         <v>44293</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55248,7 +55248,7 @@
         <v>44497</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55305,7 +55305,7 @@
         <v>44496</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -55362,7 +55362,7 @@
         <v>44774</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -55419,7 +55419,7 @@
         <v>45564</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55476,7 +55476,7 @@
         <v>45452</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55533,7 +55533,7 @@
         <v>45685</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55595,7 +55595,7 @@
         <v>45685.31189814815</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55657,7 +55657,7 @@
         <v>45441.52587962963</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55714,7 +55714,7 @@
         <v>45537</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55776,7 +55776,7 @@
         <v>45667</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55833,7 +55833,7 @@
         <v>44784</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55895,7 +55895,7 @@
         <v>45098</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55952,7 +55952,7 @@
         <v>45756</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56014,7 +56014,7 @@
         <v>45044</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56071,7 +56071,7 @@
         <v>45044.60363425926</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56133,7 +56133,7 @@
         <v>45385</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -56190,7 +56190,7 @@
         <v>45062</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -56247,7 +56247,7 @@
         <v>45289</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -56304,7 +56304,7 @@
         <v>44536</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -56361,7 +56361,7 @@
         <v>45107</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -56418,7 +56418,7 @@
         <v>44869</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -56475,7 +56475,7 @@
         <v>44546</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56532,7 +56532,7 @@
         <v>44362</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56589,7 +56589,7 @@
         <v>44893.39328703703</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56651,7 +56651,7 @@
         <v>45350</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56708,7 +56708,7 @@
         <v>44976</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56765,7 +56765,7 @@
         <v>45602.35326388889</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56822,7 +56822,7 @@
         <v>44452</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56884,7 +56884,7 @@
         <v>44585.39070601852</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56941,7 +56941,7 @@
         <v>44334</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56998,7 +56998,7 @@
         <v>45098</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -57055,7 +57055,7 @@
         <v>45098</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -57112,7 +57112,7 @@
         <v>44960</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -57169,7 +57169,7 @@
         <v>45559</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -57226,7 +57226,7 @@
         <v>45370</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -57288,7 +57288,7 @@
         <v>44757</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -57350,7 +57350,7 @@
         <v>44245</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -57412,7 +57412,7 @@
         <v>45181</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -57469,7 +57469,7 @@
         <v>45329</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57526,7 +57526,7 @@
         <v>45218</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57583,7 +57583,7 @@
         <v>45603.69104166667</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57645,7 +57645,7 @@
         <v>45747</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57707,7 +57707,7 @@
         <v>44452</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57764,7 +57764,7 @@
         <v>45350</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57821,7 +57821,7 @@
         <v>45713</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57883,7 +57883,7 @@
         <v>44949</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57940,7 +57940,7 @@
         <v>45243</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -58002,7 +58002,7 @@
         <v>45555.40415509259</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -58059,7 +58059,7 @@
         <v>44784.53177083333</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -58116,7 +58116,7 @@
         <v>44462</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -58178,7 +58178,7 @@
         <v>44546</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -58240,7 +58240,7 @@
         <v>44812</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -58297,7 +58297,7 @@
         <v>44477</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -58354,7 +58354,7 @@
         <v>45705</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         <v>44364</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -58468,7 +58468,7 @@
         <v>44364</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -58525,7 +58525,7 @@
         <v>44575</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -58582,7 +58582,7 @@
         <v>45132</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -58644,7 +58644,7 @@
         <v>45132.61612268518</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         <v>44579</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -58763,7 +58763,7 @@
         <v>45224</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -58820,7 +58820,7 @@
         <v>45062</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -58877,7 +58877,7 @@
         <v>45306</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -58934,7 +58934,7 @@
         <v>44910.40516203704</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -58991,7 +58991,7 @@
         <v>44363</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -59048,7 +59048,7 @@
         <v>44869</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -59110,7 +59110,7 @@
         <v>45261</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -59172,7 +59172,7 @@
         <v>44425</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -59229,7 +59229,7 @@
         <v>44938.64399305556</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -59286,7 +59286,7 @@
         <v>44893</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -59348,7 +59348,7 @@
         <v>45398.425</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -59405,7 +59405,7 @@
         <v>44575</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -59462,7 +59462,7 @@
         <v>45628</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -59524,7 +59524,7 @@
         <v>45062</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -59581,7 +59581,7 @@
         <v>45310</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -59643,7 +59643,7 @@
         <v>44652</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -59700,7 +59700,7 @@
         <v>44950</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -59757,7 +59757,7 @@
         <v>44977</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -59819,7 +59819,7 @@
         <v>44932</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -59876,7 +59876,7 @@
         <v>44932</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -59933,7 +59933,7 @@
         <v>45715.37094907407</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -59990,7 +59990,7 @@
         <v>45706</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -60052,7 +60052,7 @@
         <v>45173</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -60109,7 +60109,7 @@
         <v>44880</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -60171,7 +60171,7 @@
         <v>45040</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -60228,7 +60228,7 @@
         <v>45660.70398148148</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -60285,7 +60285,7 @@
         <v>44725</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -60342,7 +60342,7 @@
         <v>44784</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -60399,7 +60399,7 @@
         <v>45029</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -60456,7 +60456,7 @@
         <v>45288</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -60513,7 +60513,7 @@
         <v>44858</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -60575,7 +60575,7 @@
         <v>44968</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -60632,7 +60632,7 @@
         <v>45160</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -60694,7 +60694,7 @@
         <v>45160</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -60756,7 +60756,7 @@
         <v>45686</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -60813,7 +60813,7 @@
         <v>45727.35582175926</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -60870,7 +60870,7 @@
         <v>45365.46865740741</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -60927,7 +60927,7 @@
         <v>44364</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -60984,7 +60984,7 @@
         <v>45335</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -61046,7 +61046,7 @@
         <v>45306</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -61108,7 +61108,7 @@
         <v>45288</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -61165,7 +61165,7 @@
         <v>45547</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -61222,7 +61222,7 @@
         <v>44995</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -61279,7 +61279,7 @@
         <v>45448.52920138889</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -61336,7 +61336,7 @@
         <v>44581</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -61393,7 +61393,7 @@
         <v>45148</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -61450,7 +61450,7 @@
         <v>45712.63317129629</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -61512,7 +61512,7 @@
         <v>44371</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -61569,7 +61569,7 @@
         <v>45741</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -61631,7 +61631,7 @@
         <v>44725</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -61688,7 +61688,7 @@
         <v>44966</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -61750,7 +61750,7 @@
         <v>44540.69231481481</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -61807,7 +61807,7 @@
         <v>44433</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -61864,7 +61864,7 @@
         <v>44246</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -61921,7 +61921,7 @@
         <v>45034</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -61978,7 +61978,7 @@
         <v>44830</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -62035,7 +62035,7 @@
         <v>45153</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -62097,7 +62097,7 @@
         <v>44489</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -62154,7 +62154,7 @@
         <v>45645.62415509259</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -62216,7 +62216,7 @@
         <v>45775</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -62278,7 +62278,7 @@
         <v>45190.53902777778</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -62340,7 +62340,7 @@
         <v>44968.39174768519</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -62397,7 +62397,7 @@
         <v>45781.83173611111</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -62454,7 +62454,7 @@
         <v>45775</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -62516,7 +62516,7 @@
         <v>44384</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -62573,7 +62573,7 @@
         <v>45635.46380787037</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -62630,7 +62630,7 @@
         <v>45524</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -62687,7 +62687,7 @@
         <v>45637.46026620371</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -62744,7 +62744,7 @@
         <v>44430</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -62801,7 +62801,7 @@
         <v>45624.38962962963</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -62858,7 +62858,7 @@
         <v>45789.54369212963</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -62915,7 +62915,7 @@
         <v>45789.53918981482</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -62972,7 +62972,7 @@
         <v>45793.50888888889</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -63034,7 +63034,7 @@
         <v>45611.48289351852</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>

--- a/Översikt NYKÖPING.xlsx
+++ b/Översikt NYKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45943.45181712963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45540.64393518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45244</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45981</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44384</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45624</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>45978</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>45846.66900462963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45952.6</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45869</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44364</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>45924.45384259259</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>45954.29069444445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>46009.69998842593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45540.56883101852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45546.44880787037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>45518</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44937</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>45328</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>45924.44457175926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45448.52262731481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>45603.68148148148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>45986.73616898148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>46043.41762731481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>45540.61594907408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>45335</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44271</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44406</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>44348</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>44462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>45210</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>44480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45922.53443287037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>45922</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>45952.57625</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45954.60826388889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44911</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>45973.4609837963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>44406</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44631</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>45982</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>46030.61767361111</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44363</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>45540.60987268519</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>44406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>44812</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45485</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44729</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>44792</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>44263</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>45547</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44873.3884375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44488.48640046296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44238</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44531</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44403</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>44817</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45027</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>44806</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>45813.39127314815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45892</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>45919.42976851852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>45832.40953703703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>45226</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45940.41657407407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>45440</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>45946.60702546296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>45950.38049768518</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>45252</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>45357</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45981.49908564815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>45987.60164351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>45993.35012731481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>45978</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>46007</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>45435</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>45390.67849537037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>46013</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>45677</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45103</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>45056</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44621</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>45289</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>44446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>45385.59928240741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45603.69032407407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>45636</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45145</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>45328</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44349</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44283.88116898148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44274</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44285.57488425926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44560</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44870</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44811.41642361111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>44238</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44266</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44256</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44264</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44505</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44264</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44656</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>44522</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44271</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44267</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44510</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44466</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44648</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44494</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>44767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44705.71707175926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44775</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44504</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44733.39394675926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44418</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44753</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
         <v>44873.38078703704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>44652.44121527778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         <v>44659</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>44425</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44285</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44525</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44364</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44581</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44790</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44416</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44873.38539351852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44705.69604166667</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44623</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44431</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44425</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44430</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44690</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44830.91241898148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44396</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44804.68011574074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44659</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44614</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44613</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44530</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44239</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44258</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44261</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44237</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>44237</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44272</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44676.50108796296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44812</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44502</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44354</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44416</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44416</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44430</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44476</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44530</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44264</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>44783</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>44425</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44498</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44505</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44466</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44505</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44427</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44416</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44454</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44446</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44767</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44662</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44718.44672453704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44470</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44316</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44887.38490740741</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44747</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44784</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44783</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44733.37920138889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44733.38643518519</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44804</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44733.3975462963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44613</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44420</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44614</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44881.43841435185</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44440</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44525.48111111111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44812.67331018519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44830</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44326</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44813.53872685185</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44679</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44582.64112268519</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44853</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44578</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44704.5418287037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44711.460625</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44709.48592592592</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>44722.62962962963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44539</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44440</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>44658</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>44652.50168981482</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>44522</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44522</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44882</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44862</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44531</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44256</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44245</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44530</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44425</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>44238</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>44462</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>44413</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>44246</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44440</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44537</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44719</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44748</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>44813.5283449074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>44525.45300925926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44250</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44256</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44466</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44709.46103009259</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44709.47613425926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44708</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44537</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44713</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>44729</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>44475</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>44348.90090277778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>44446</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>44627</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>44505</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>44463</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>44462</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>45365.45710648148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>45443.54708333333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18855,7 +18855,7 @@
         <v>44491</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44774</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>45268.4309375</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44865</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>45370</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44382</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>45424</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>45425</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>45301</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44578</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44509</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>45110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>45210.7621875</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>45210</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44515.40481481481</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>45378.34151620371</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44620.7231712963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44529</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>44579</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45352</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>44837</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>45143</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>45062</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45205</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44582.63854166667</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>45713.34657407407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44358</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44846.6333912037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44454</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>45201</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>45272.4568287037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>45258</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45721.61918981482</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45721.62387731481</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45419</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45419</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45044.63796296297</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>44839</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44957.73273148148</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45672.32315972223</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44251</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44363</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45424</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>45443.54967592593</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>44733.48971064815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>45335</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44968.38077546296</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44978</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>45148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>45166</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44977.44368055555</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44990</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44964</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>45247</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>45244</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>45393.53303240741</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45146</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44543</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>45159</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44525.34483796296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44267</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22608,7 +22608,7 @@
         <v>45540.55361111111</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45271</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>45351</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22846,7 +22846,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44825</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>44965</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44935.59042824074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45559.48292824074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>45545</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>45553</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>45677</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>45161</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44859</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44879</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>44397.39152777778</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>45239</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>45729.41048611111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44623</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>45335</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44744.68890046296</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>45315</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44433</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>45803.28027777778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>45603.67677083334</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>45163</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>45801.4565162037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>45802</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>45145.5899537037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>45218</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>45166.57472222222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>45160</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44339</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45033</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>45229</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44529</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>45730.51428240741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>45720.51685185185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44970</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45672</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45810.48511574074</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45810.49662037037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45813.38466435186</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>45813</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25340,7 +25340,7 @@
         <v>45854</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25397,7 +25397,7 @@
         <v>44266</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>45424</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45278</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25573,7 +25573,7 @@
         <v>45518.68938657407</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>45733</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45202.41581018519</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45888</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45895.52841435185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45817.43488425926</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25982,7 +25982,7 @@
         <v>45817.30131944444</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>45817.52033564815</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45132.64674768518</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26168,7 +26168,7 @@
         <v>45721.46049768518</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45161</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>45817.43222222223</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45624</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>45854</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26463,7 +26463,7 @@
         <v>45817.40743055556</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45817.42873842592</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>44425</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26644,7 +26644,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26701,7 +26701,7 @@
         <v>45216</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26758,7 +26758,7 @@
         <v>45897.65988425926</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26820,7 +26820,7 @@
         <v>44980</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26877,7 +26877,7 @@
         <v>44976</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26934,7 +26934,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26991,7 +26991,7 @@
         <v>45900.33557870371</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45819.66016203703</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45819.64758101852</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>45819.64652777778</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>45819.65033564815</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27296,7 +27296,7 @@
         <v>45819.65243055556</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>45819.64578703704</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45819.65145833333</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>45819.66092592593</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>45162</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27606,7 +27606,7 @@
         <v>45819.65354166667</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>45043</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>45821.36927083333</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         <v>45903.38063657407</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27839,7 +27839,7 @@
         <v>45685</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>45370</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27963,7 +27963,7 @@
         <v>45820.56608796296</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>45820</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>45820.30832175926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>45743.70403935185</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44310.46975694445</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45329</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>45359.38408564815</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>45721.64368055556</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>45820.5670949074</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>45258</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>45905.34798611111</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>44510</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>45070</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>45908.28657407407</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28853,7 +28853,7 @@
         <v>45908.43563657408</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28910,7 +28910,7 @@
         <v>44678</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         <v>44812</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>45733.69909722222</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>45008.46658564815</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>45826</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44579</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>45705</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>45183</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>45733.69351851852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>45915.66289351852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>45826.32295138889</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>45379.62061342593</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29656,7 +29656,7 @@
         <v>44810</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>45915.79974537037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29770,7 +29770,7 @@
         <v>45831.54910879629</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>45831.55167824074</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>45831</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>45919.43037037037</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>45831.55019675926</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44620</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>45831.5509837963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>44375</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>45832.41319444445</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>45001</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>45582.36425925926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>45730.74708333334</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44811</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44810</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>45855</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>44774</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45924.44690972222</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45924.43694444445</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44817</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45832.58648148148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44830</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45924.43239583333</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>44965</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45924.44197916667</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45834.90304398148</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>44251</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45855</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>45926.60075231481</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>45834.81365740741</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>45559</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>45747.46189814815</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>45729.40054398148</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>45729.40241898148</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>45834.81833333334</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>45834.9077662037</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>45931.72109953704</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44890</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31934,7 +31934,7 @@
         <v>45930</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31991,7 +31991,7 @@
         <v>45855</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32053,7 +32053,7 @@
         <v>44904</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>45931.7371412037</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44838</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>45933.66715277778</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32281,7 +32281,7 @@
         <v>44839</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32338,7 +32338,7 @@
         <v>44840</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32395,7 +32395,7 @@
         <v>44711.46961805555</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32452,7 +32452,7 @@
         <v>45855</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>45932.31585648148</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         <v>44965</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>45365.46444444444</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>45933.45298611111</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>45933.44259259259</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45855</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32876,7 +32876,7 @@
         <v>45933.47145833333</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32933,7 +32933,7 @@
         <v>45936.61704861111</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32990,7 +32990,7 @@
         <v>44967</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33047,7 +33047,7 @@
         <v>45387.57589120371</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33104,7 +33104,7 @@
         <v>45841.33006944445</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>45936.61511574074</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33218,7 +33218,7 @@
         <v>45841.40429398148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>44370</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33337,7 +33337,7 @@
         <v>45937.36054398148</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>44865</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>44414</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44960</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>45939.65427083334</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>45842.38688657407</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33694,7 +33694,7 @@
         <v>45940.59440972222</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45524</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         <v>45943.34979166667</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33875,7 +33875,7 @@
         <v>45842.39219907407</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33932,7 +33932,7 @@
         <v>45440</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>45940.40561342592</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34056,7 +34056,7 @@
         <v>45842.38885416667</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34113,7 +34113,7 @@
         <v>45940.3683912037</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>45702</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>45844.94479166667</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>45844.94641203704</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44931.84092592593</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44853</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>45335</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34527,7 +34527,7 @@
         <v>45842.38351851852</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34584,7 +34584,7 @@
         <v>45938</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>45945</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44880</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45166.58883101852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34822,7 +34822,7 @@
         <v>45356</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34879,7 +34879,7 @@
         <v>45944.52729166667</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34936,7 +34936,7 @@
         <v>45096</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34993,7 +34993,7 @@
         <v>44536</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>45946.61488425926</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>45706</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35174,7 +35174,7 @@
         <v>44767.70469907407</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35231,7 +35231,7 @@
         <v>45187</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>45946.65184027778</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35345,7 +35345,7 @@
         <v>45945.84612268519</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35407,7 +35407,7 @@
         <v>45945.83292824074</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         <v>44676</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35526,7 +35526,7 @@
         <v>45741</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>45743.6546875</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>45737.43103009259</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35702,7 +35702,7 @@
         <v>45854.54884259259</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35764,7 +35764,7 @@
         <v>45854.54319444444</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>45370</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>45900.31365740741</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35945,7 +35945,7 @@
         <v>45854</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36002,7 +36002,7 @@
         <v>45713</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36064,7 +36064,7 @@
         <v>44784</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>45854.58997685185</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44553</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>45950.4405787037</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         <v>45951.36939814815</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36364,7 +36364,7 @@
         <v>45900.34761574074</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>45860</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36483,7 +36483,7 @@
         <v>44938.65421296296</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>45860</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44881.66858796297</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>45863.31188657408</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36716,7 +36716,7 @@
         <v>45863</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>44825.65760416666</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>44988</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>44944</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>45058.61591435185</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>45954.27431712963</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>45820</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37130,7 +37130,7 @@
         <v>45954.42796296296</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37192,7 +37192,7 @@
         <v>45954.6296412037</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37254,7 +37254,7 @@
         <v>45216</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44607.459375</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37368,7 +37368,7 @@
         <v>44964.60866898148</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37425,7 +37425,7 @@
         <v>44995.58079861111</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37482,7 +37482,7 @@
         <v>45873.38168981481</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37539,7 +37539,7 @@
         <v>45798</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37601,7 +37601,7 @@
         <v>44964.61883101852</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37658,7 +37658,7 @@
         <v>45170</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37715,7 +37715,7 @@
         <v>44634</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37772,7 +37772,7 @@
         <v>45076</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37834,7 +37834,7 @@
         <v>45798</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>45072</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37953,7 +37953,7 @@
         <v>44858</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>45905.3440625</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>45350.66584490741</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>45092</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>45729.40546296296</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>45098</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38300,7 +38300,7 @@
         <v>45964.33553240741</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>45964.43212962963</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38424,7 +38424,7 @@
         <v>45964.6134837963</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>44278</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38543,7 +38543,7 @@
         <v>44278</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38600,7 +38600,7 @@
         <v>45840.48537037037</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38657,7 +38657,7 @@
         <v>45027</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38714,7 +38714,7 @@
         <v>45761</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38771,7 +38771,7 @@
         <v>45343.55482638889</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>44943</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44943</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>45138</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>45970.7487962963</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>45419</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39118,7 +39118,7 @@
         <v>45971.59018518519</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44650</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>45970.84542824074</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39299,7 +39299,7 @@
         <v>45970.82457175926</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39361,7 +39361,7 @@
         <v>45970.86018518519</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>44740.79188657407</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>45970.80259259259</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39542,7 +39542,7 @@
         <v>45364</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39599,7 +39599,7 @@
         <v>45882.36824074074</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39656,7 +39656,7 @@
         <v>45410</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39713,7 +39713,7 @@
         <v>44430</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39775,7 +39775,7 @@
         <v>45972.64583333334</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39837,7 +39837,7 @@
         <v>45106</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39894,7 +39894,7 @@
         <v>45973.70010416667</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39956,7 +39956,7 @@
         <v>44404</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40018,7 +40018,7 @@
         <v>44404</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40080,7 +40080,7 @@
         <v>45972.34512731482</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40142,7 +40142,7 @@
         <v>45972.37108796297</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40199,7 +40199,7 @@
         <v>44537</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40256,7 +40256,7 @@
         <v>44938.51252314815</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44974.44780092593</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44960</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>44239</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40494,7 +40494,7 @@
         <v>44783</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40551,7 +40551,7 @@
         <v>44977</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40613,7 +40613,7 @@
         <v>44837</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40670,7 +40670,7 @@
         <v>45440</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40732,7 +40732,7 @@
         <v>45974.64811342592</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>45974.27130787037</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>45352</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>45352</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40980,7 +40980,7 @@
         <v>44690</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41037,7 +41037,7 @@
         <v>45702</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41094,7 +41094,7 @@
         <v>44998</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41151,7 +41151,7 @@
         <v>44837</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41208,7 +41208,7 @@
         <v>44837</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41265,7 +41265,7 @@
         <v>44988</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>45720.84736111111</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41379,7 +41379,7 @@
         <v>45202.41826388889</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41436,7 +41436,7 @@
         <v>44466</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41493,7 +41493,7 @@
         <v>45729.39240740741</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41550,7 +41550,7 @@
         <v>45721.60896990741</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41607,7 +41607,7 @@
         <v>45721.61415509259</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41664,7 +41664,7 @@
         <v>45979.3952662037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41721,7 +41721,7 @@
         <v>45224</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41778,7 +41778,7 @@
         <v>45224</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41835,7 +41835,7 @@
         <v>45978.38457175926</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41897,7 +41897,7 @@
         <v>45978</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41954,7 +41954,7 @@
         <v>45978</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42011,7 +42011,7 @@
         <v>45162</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42068,7 +42068,7 @@
         <v>45075</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42130,7 +42130,7 @@
         <v>45349.71461805556</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42187,7 +42187,7 @@
         <v>45980.30935185185</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42244,7 +42244,7 @@
         <v>45980.329375</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>44525</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45384</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>44957</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45982.7109375</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>46027.44545138889</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45982.28105324074</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42658,7 +42658,7 @@
         <v>45982</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         <v>44578</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45743.69769675926</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45743.70009259259</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>44379</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45729.41755787037</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45112</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>44936.74096064815</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45985.67518518519</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45603.67597222222</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43233,7 +43233,7 @@
         <v>45986.7494212963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43295,7 +43295,7 @@
         <v>45986.56260416667</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44475.45990740741</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43414,7 +43414,7 @@
         <v>45986.51681712963</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43471,7 +43471,7 @@
         <v>45986.5222337963</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43528,7 +43528,7 @@
         <v>45986.51385416667</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43585,7 +43585,7 @@
         <v>45986.52648148148</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43642,7 +43642,7 @@
         <v>45987.47385416667</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43704,7 +43704,7 @@
         <v>44936</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43761,7 +43761,7 @@
         <v>45985.67907407408</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43818,7 +43818,7 @@
         <v>45986.74057870371</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43880,7 +43880,7 @@
         <v>45986.5184837963</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43937,7 +43937,7 @@
         <v>45986.5219212963</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43994,7 +43994,7 @@
         <v>44445</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44051,7 +44051,7 @@
         <v>46030.60665509259</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44108,7 +44108,7 @@
         <v>45721.65471064814</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44165,7 +44165,7 @@
         <v>45328</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44222,7 +44222,7 @@
         <v>45989.49159722222</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44279,7 +44279,7 @@
         <v>45989.71277777778</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44341,7 +44341,7 @@
         <v>45916.43809027778</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>46030.33498842592</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44460,7 +44460,7 @@
         <v>46030.34722222222</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44522,7 +44522,7 @@
         <v>46030.61884259259</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44579,7 +44579,7 @@
         <v>46030.60493055556</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44636,7 +44636,7 @@
         <v>45989.48905092593</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44693,7 +44693,7 @@
         <v>44414.37789351852</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44750,7 +44750,7 @@
         <v>45604.60871527778</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44807,7 +44807,7 @@
         <v>45987.61929398148</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44869,7 +44869,7 @@
         <v>45329</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44926,7 +44926,7 @@
         <v>45993.35203703704</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44988,7 +44988,7 @@
         <v>45993.57234953704</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45045,7 +45045,7 @@
         <v>44425</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45102,7 +45102,7 @@
         <v>45414.52494212963</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45159,7 +45159,7 @@
         <v>45993.55981481481</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45216,7 +45216,7 @@
         <v>45993.56157407408</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45273,7 +45273,7 @@
         <v>45931</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45330,7 +45330,7 @@
         <v>44616.86403935185</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45387,7 +45387,7 @@
         <v>45993.37518518518</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45449,7 +45449,7 @@
         <v>46034.58453703704</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45511,7 +45511,7 @@
         <v>45993.56743055556</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44645.64319444444</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45625,7 +45625,7 @@
         <v>44593</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45702,7 +45702,7 @@
         <v>46036.68469907407</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45759,7 +45759,7 @@
         <v>46036.80012731482</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45816,7 +45816,7 @@
         <v>44468</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>45630.56158564815</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>46036.39115740741</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>44698</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46049,7 +46049,7 @@
         <v>45603</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46111,7 +46111,7 @@
         <v>45603</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>46030</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>44727</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46292,7 +46292,7 @@
         <v>44235</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46354,7 +46354,7 @@
         <v>44549.75226851852</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46411,7 +46411,7 @@
         <v>46041.85635416667</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46473,7 +46473,7 @@
         <v>45999.47252314815</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46530,7 +46530,7 @@
         <v>45029</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46587,7 +46587,7 @@
         <v>45061</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46649,7 +46649,7 @@
         <v>45061</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         <v>44579</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46763,7 +46763,7 @@
         <v>45461</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46820,7 +46820,7 @@
         <v>44517</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>45999</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>45090</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46996,7 +46996,7 @@
         <v>45999.45918981481</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47053,7 +47053,7 @@
         <v>45210</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47110,7 +47110,7 @@
         <v>45419</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47167,7 +47167,7 @@
         <v>45343</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47229,7 +47229,7 @@
         <v>45999</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47291,7 +47291,7 @@
         <v>46043.5558912037</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47348,7 +47348,7 @@
         <v>45149</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45978</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45373.48542824074</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>45418</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47591,7 +47591,7 @@
         <v>45418</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47653,7 +47653,7 @@
         <v>45660</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47710,7 +47710,7 @@
         <v>45603</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47767,7 +47767,7 @@
         <v>44475</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47824,7 +47824,7 @@
         <v>44475</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47881,7 +47881,7 @@
         <v>46041.87228009259</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47943,7 +47943,7 @@
         <v>44579</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48000,7 +48000,7 @@
         <v>46001.40962962963</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48062,7 +48062,7 @@
         <v>44336</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48119,7 +48119,7 @@
         <v>45398</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48176,7 +48176,7 @@
         <v>46043.55282407408</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48233,7 +48233,7 @@
         <v>45143</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48290,7 +48290,7 @@
         <v>45558.32922453704</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48352,7 +48352,7 @@
         <v>46043.60672453704</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48409,7 +48409,7 @@
         <v>46042</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         <v>44916.67027777778</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45166</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48585,7 +48585,7 @@
         <v>46045.43084490741</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48642,7 +48642,7 @@
         <v>46003</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48699,7 +48699,7 @@
         <v>45978</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>45348</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48818,7 +48818,7 @@
         <v>45327</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>46007</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>46049.67630787037</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48994,7 +48994,7 @@
         <v>46049.67348379629</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         <v>46049.68626157408</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49108,7 +49108,7 @@
         <v>44812</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49165,7 +49165,7 @@
         <v>45279</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49222,7 +49222,7 @@
         <v>44432</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49279,7 +49279,7 @@
         <v>44960</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49336,7 +49336,7 @@
         <v>44960</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49393,7 +49393,7 @@
         <v>45435</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49455,7 +49455,7 @@
         <v>45604.61385416667</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49512,7 +49512,7 @@
         <v>46007</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49569,7 +49569,7 @@
         <v>46006.43814814815</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49631,7 +49631,7 @@
         <v>45630.55130787037</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>46007</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>46049.66806712963</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>46049.67916666667</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>45911</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49921,7 +49921,7 @@
         <v>46006.43637731481</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49983,7 +49983,7 @@
         <v>46050.46560185185</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50040,7 +50040,7 @@
         <v>45546.34533564815</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50102,7 +50102,7 @@
         <v>45741</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50164,7 +50164,7 @@
         <v>44879</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         <v>46009.37207175926</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50283,7 +50283,7 @@
         <v>46009.36378472222</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50340,7 +50340,7 @@
         <v>46050.46745370371</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50397,7 +50397,7 @@
         <v>44783</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50454,7 +50454,7 @@
         <v>44858</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50511,7 +50511,7 @@
         <v>44942</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50568,7 +50568,7 @@
         <v>44294</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50625,7 +50625,7 @@
         <v>44294</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50687,7 +50687,7 @@
         <v>45056</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50744,7 +50744,7 @@
         <v>44430</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50806,7 +50806,7 @@
         <v>44911</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50863,7 +50863,7 @@
         <v>45005.33341435185</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50920,7 +50920,7 @@
         <v>44530</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50977,7 +50977,7 @@
         <v>44959</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51034,7 +51034,7 @@
         <v>45162</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51096,7 +51096,7 @@
         <v>46010.59240740741</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51153,7 +51153,7 @@
         <v>46013</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51210,7 +51210,7 @@
         <v>46013</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51267,7 +51267,7 @@
         <v>44755</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51324,7 +51324,7 @@
         <v>44938</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51381,7 +51381,7 @@
         <v>45712.46146990741</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>46010.63642361111</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45085</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51562,7 +51562,7 @@
         <v>44790.56490740741</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51619,7 +51619,7 @@
         <v>46010.5390625</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51676,7 +51676,7 @@
         <v>46053.32077546296</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51733,7 +51733,7 @@
         <v>45069</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51795,7 +51795,7 @@
         <v>45474.63457175926</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51852,7 +51852,7 @@
         <v>45624</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51909,7 +51909,7 @@
         <v>46055</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51966,7 +51966,7 @@
         <v>44992</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52023,7 +52023,7 @@
         <v>45530</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52080,7 +52080,7 @@
         <v>44419</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52137,7 +52137,7 @@
         <v>44798</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52194,7 +52194,7 @@
         <v>44728.40604166667</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52251,7 +52251,7 @@
         <v>45986</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52308,7 +52308,7 @@
         <v>45674</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52365,7 +52365,7 @@
         <v>44799</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52422,7 +52422,7 @@
         <v>44881</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52479,7 +52479,7 @@
         <v>45148</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>44525.90890046296</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52593,7 +52593,7 @@
         <v>44525.9234375</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52650,7 +52650,7 @@
         <v>44846.63041666667</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52707,7 +52707,7 @@
         <v>45222</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52769,7 +52769,7 @@
         <v>45202.41700231482</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52826,7 +52826,7 @@
         <v>44960.37513888889</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52883,7 +52883,7 @@
         <v>44960.4335300926</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52940,7 +52940,7 @@
         <v>44575</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52997,7 +52997,7 @@
         <v>45546.32984953704</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53059,7 +53059,7 @@
         <v>45019.65358796297</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53116,7 +53116,7 @@
         <v>45051</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53178,7 +53178,7 @@
         <v>45146</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53240,7 +53240,7 @@
         <v>45174</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53302,7 +53302,7 @@
         <v>45307</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53364,7 +53364,7 @@
         <v>44938.52150462963</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53421,7 +53421,7 @@
         <v>44938.45053240741</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53478,7 +53478,7 @@
         <v>45330</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53535,7 +53535,7 @@
         <v>45075</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53597,7 +53597,7 @@
         <v>44725</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53654,7 +53654,7 @@
         <v>44606</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53716,7 +53716,7 @@
         <v>44525.48533564815</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53778,7 +53778,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53835,7 +53835,7 @@
         <v>45733.61880787037</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53897,7 +53897,7 @@
         <v>44575.41842592593</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53954,7 +53954,7 @@
         <v>44879</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54016,7 +54016,7 @@
         <v>45096</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54078,7 +54078,7 @@
         <v>44958</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54135,7 +54135,7 @@
         <v>44946</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54192,7 +54192,7 @@
         <v>45166</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54254,7 +54254,7 @@
         <v>44494</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54311,7 +54311,7 @@
         <v>44435.57420138889</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54368,7 +54368,7 @@
         <v>44237</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54430,7 +54430,7 @@
         <v>45110</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54487,7 +54487,7 @@
         <v>44430</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54544,7 +54544,7 @@
         <v>45114</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54601,7 +54601,7 @@
         <v>44456</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54658,7 +54658,7 @@
         <v>45170</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54715,7 +54715,7 @@
         <v>44901.48960648148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54777,7 +54777,7 @@
         <v>44350</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54834,7 +54834,7 @@
         <v>45762.87655092592</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54891,7 +54891,7 @@
         <v>44382</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54953,7 +54953,7 @@
         <v>44649</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55010,7 +55010,7 @@
         <v>44462</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55072,7 +55072,7 @@
         <v>44944</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55134,7 +55134,7 @@
         <v>45520</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55191,7 +55191,7 @@
         <v>44293</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55248,7 +55248,7 @@
         <v>44497</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55305,7 +55305,7 @@
         <v>44496</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -55362,7 +55362,7 @@
         <v>44774</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -55419,7 +55419,7 @@
         <v>45564</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55476,7 +55476,7 @@
         <v>45452</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55533,7 +55533,7 @@
         <v>45685</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55595,7 +55595,7 @@
         <v>45685.31189814815</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55657,7 +55657,7 @@
         <v>45441.52587962963</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55714,7 +55714,7 @@
         <v>45537</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55776,7 +55776,7 @@
         <v>45667</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55833,7 +55833,7 @@
         <v>44784</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55895,7 +55895,7 @@
         <v>45098</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55952,7 +55952,7 @@
         <v>45756</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56014,7 +56014,7 @@
         <v>45044</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56071,7 +56071,7 @@
         <v>45044.60363425926</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56133,7 +56133,7 @@
         <v>45385</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -56190,7 +56190,7 @@
         <v>45062</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -56247,7 +56247,7 @@
         <v>45289</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -56304,7 +56304,7 @@
         <v>44536</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -56361,7 +56361,7 @@
         <v>45107</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -56418,7 +56418,7 @@
         <v>44869</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -56475,7 +56475,7 @@
         <v>44546</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56532,7 +56532,7 @@
         <v>44362</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56589,7 +56589,7 @@
         <v>44893.39328703703</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56651,7 +56651,7 @@
         <v>45350</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56708,7 +56708,7 @@
         <v>44976</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56765,7 +56765,7 @@
         <v>45602.35326388889</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56822,7 +56822,7 @@
         <v>44452</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56884,7 +56884,7 @@
         <v>44585.39070601852</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56941,7 +56941,7 @@
         <v>44334</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56998,7 +56998,7 @@
         <v>45098</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -57055,7 +57055,7 @@
         <v>45098</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -57112,7 +57112,7 @@
         <v>44960</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -57169,7 +57169,7 @@
         <v>45559</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -57226,7 +57226,7 @@
         <v>45370</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -57288,7 +57288,7 @@
         <v>44757</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -57350,7 +57350,7 @@
         <v>44245</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -57412,7 +57412,7 @@
         <v>45181</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -57469,7 +57469,7 @@
         <v>45329</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57526,7 +57526,7 @@
         <v>45218</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57583,7 +57583,7 @@
         <v>45603.69104166667</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57645,7 +57645,7 @@
         <v>45747</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57707,7 +57707,7 @@
         <v>44452</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57764,7 +57764,7 @@
         <v>45350</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57821,7 +57821,7 @@
         <v>45713</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57883,7 +57883,7 @@
         <v>44949</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57940,7 +57940,7 @@
         <v>45243</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -58002,7 +58002,7 @@
         <v>45555.40415509259</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -58059,7 +58059,7 @@
         <v>44784.53177083333</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -58116,7 +58116,7 @@
         <v>44462</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -58178,7 +58178,7 @@
         <v>44546</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -58240,7 +58240,7 @@
         <v>44812</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -58297,7 +58297,7 @@
         <v>44477</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -58354,7 +58354,7 @@
         <v>45705</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         <v>44364</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -58468,7 +58468,7 @@
         <v>44364</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -58525,7 +58525,7 @@
         <v>44575</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -58582,7 +58582,7 @@
         <v>45132</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -58644,7 +58644,7 @@
         <v>45132.61612268518</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         <v>44579</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -58763,7 +58763,7 @@
         <v>45224</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -58820,7 +58820,7 @@
         <v>45062</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -58877,7 +58877,7 @@
         <v>45306</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -58934,7 +58934,7 @@
         <v>44910.40516203704</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -58991,7 +58991,7 @@
         <v>44363</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -59048,7 +59048,7 @@
         <v>44869</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -59110,7 +59110,7 @@
         <v>45261</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -59172,7 +59172,7 @@
         <v>44425</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -59229,7 +59229,7 @@
         <v>44938.64399305556</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -59286,7 +59286,7 @@
         <v>44893</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -59348,7 +59348,7 @@
         <v>45398.425</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -59405,7 +59405,7 @@
         <v>44575</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -59462,7 +59462,7 @@
         <v>45628</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -59524,7 +59524,7 @@
         <v>45062</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -59581,7 +59581,7 @@
         <v>45310</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -59643,7 +59643,7 @@
         <v>44652</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -59700,7 +59700,7 @@
         <v>44950</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -59757,7 +59757,7 @@
         <v>44977</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -59819,7 +59819,7 @@
         <v>44932</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -59876,7 +59876,7 @@
         <v>44932</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -59933,7 +59933,7 @@
         <v>45715.37094907407</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -59990,7 +59990,7 @@
         <v>45706</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -60052,7 +60052,7 @@
         <v>45173</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -60109,7 +60109,7 @@
         <v>44880</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -60171,7 +60171,7 @@
         <v>45040</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -60228,7 +60228,7 @@
         <v>45660.70398148148</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -60285,7 +60285,7 @@
         <v>44725</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -60342,7 +60342,7 @@
         <v>44784</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -60399,7 +60399,7 @@
         <v>45029</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -60456,7 +60456,7 @@
         <v>45288</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -60513,7 +60513,7 @@
         <v>44858</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -60575,7 +60575,7 @@
         <v>44968</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -60632,7 +60632,7 @@
         <v>45160</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -60694,7 +60694,7 @@
         <v>45160</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -60756,7 +60756,7 @@
         <v>45686</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -60813,7 +60813,7 @@
         <v>45727.35582175926</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -60870,7 +60870,7 @@
         <v>45365.46865740741</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -60927,7 +60927,7 @@
         <v>44364</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -60984,7 +60984,7 @@
         <v>45335</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -61046,7 +61046,7 @@
         <v>45306</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -61108,7 +61108,7 @@
         <v>45288</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -61165,7 +61165,7 @@
         <v>45547</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -61222,7 +61222,7 @@
         <v>44995</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -61279,7 +61279,7 @@
         <v>45448.52920138889</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -61336,7 +61336,7 @@
         <v>44581</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -61393,7 +61393,7 @@
         <v>45148</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -61450,7 +61450,7 @@
         <v>45712.63317129629</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -61512,7 +61512,7 @@
         <v>44371</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -61569,7 +61569,7 @@
         <v>45741</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -61631,7 +61631,7 @@
         <v>44725</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -61688,7 +61688,7 @@
         <v>44966</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -61750,7 +61750,7 @@
         <v>44540.69231481481</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -61807,7 +61807,7 @@
         <v>44433</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -61864,7 +61864,7 @@
         <v>44246</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -61921,7 +61921,7 @@
         <v>45034</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -61978,7 +61978,7 @@
         <v>44830</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -62035,7 +62035,7 @@
         <v>45153</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -62097,7 +62097,7 @@
         <v>44489</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -62154,7 +62154,7 @@
         <v>45645.62415509259</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -62216,7 +62216,7 @@
         <v>45775</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -62278,7 +62278,7 @@
         <v>45190.53902777778</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -62340,7 +62340,7 @@
         <v>44968.39174768519</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -62397,7 +62397,7 @@
         <v>45781.83173611111</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -62454,7 +62454,7 @@
         <v>45775</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -62516,7 +62516,7 @@
         <v>44384</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -62573,7 +62573,7 @@
         <v>45635.46380787037</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -62630,7 +62630,7 @@
         <v>45524</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -62687,7 +62687,7 @@
         <v>45637.46026620371</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -62744,7 +62744,7 @@
         <v>44430</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -62801,7 +62801,7 @@
         <v>45624.38962962963</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -62858,7 +62858,7 @@
         <v>45789.54369212963</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -62915,7 +62915,7 @@
         <v>45789.53918981482</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -62972,7 +62972,7 @@
         <v>45793.50888888889</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -63034,7 +63034,7 @@
         <v>45611.48289351852</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>

--- a/Översikt NYKÖPING.xlsx
+++ b/Översikt NYKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45943.45181712963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45540.64393518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45244</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45981</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44384</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45624</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>45978</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>45846.66900462963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45952.6</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45869</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>44364</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>45924.45384259259</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>45954.29069444445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>45540.56883101852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>46009.69998842593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45546.44880787037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>45518</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44937</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>45328</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>45924.44457175926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45448.52262731481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>45603.68148148148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>45986.73616898148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>46043.41762731481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>45540.61594907408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>45335</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44271</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44406</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>44348</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>44462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>45210</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>44480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45922.53443287037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>45922</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44406</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>45952.57625</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>45954.60826388889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44911</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44631</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45973.4609837963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>45982</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44363</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45540.60987268519</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44406</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44812</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>46030.61767361111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45485</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44729</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>44792</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>44263</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>45547</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44873.3884375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44488.48640046296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44446</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44531</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>44403</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45027</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>44817</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>44806</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>44517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>45832.40953703703</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>45892</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>45226</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45919.42976851852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>45440</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>45940.41657407407</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45946.60702546296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>45950.38049768518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>45252</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45357</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45981.49908564815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>45987.60164351852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>45993.35012731481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>45435</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>46007</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45390.67849537037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>46013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45677</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>45103</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45978</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>46058</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>45056</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>44621</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>45289</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>45385.59928240741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>45603.69032407407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>45145</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45328</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>45813.39127314815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44349</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>44283.88116898148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>44274</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>44285.57488425926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>44560</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>44870</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>44811.41642361111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44266</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44264</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44256</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44264</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44505</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>44656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44522</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44271</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44494</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44267</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44510</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>44466</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>44648</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>44705.71707175926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44775</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44767</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44418</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44774</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44504</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44733.39394675926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44753</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>44652.44121527778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>44873.38078703704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         <v>44285</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44659</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11082,7 +11082,7 @@
         <v>44425</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>44525</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>44812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>44648</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>44364</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>44581</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44790</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44416</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44873.38539351852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44623</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44705.69604166667</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44431</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44425</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44690</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44425</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44430</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44259</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44830.91241898148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44396</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44804.68011574074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44659</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44614</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44613</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44530</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44258</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44261</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44272</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44491</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44676.50108796296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44812</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44502</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44416</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44416</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44354</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44430</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44476</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44264</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44783</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44425</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44530</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44498</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44505</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44466</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44505</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44416</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44454</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44446</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>44662</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>44470</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44718.44672453704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44825</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44316</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44887.38490740741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44747</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44783</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44733.37920138889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44733.38643518519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>44804</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44733.3975462963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44613</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44881.43841435185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44440</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>44812.67331018519</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>44525.48111111111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44830</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44326</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44536</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44813.53872685185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44679</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44582.64112268519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44701</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44704.5418287037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44711.460625</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44578</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44709.48592592592</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44722.62962962963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44539</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44259</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44440</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44658</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16200,7 +16200,7 @@
         <v>44652.50168981482</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16257,7 +16257,7 @@
         <v>44522</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16314,7 +16314,7 @@
         <v>44522</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>44882</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>44862</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>44531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>44256</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>44530</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44425</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44413</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44440</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44537</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44748</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>44719</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>44813.5283449074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>44424</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44525.45300925926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44250</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44256</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44466</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>44709.46103009259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>44709.47613425926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>44537</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44708</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44729</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>44713</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44446</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>44475</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>44348.90090277778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>44627</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>44505</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>44462</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45365.45710648148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44774</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18359,7 +18359,7 @@
         <v>45268.4309375</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18416,7 +18416,7 @@
         <v>45370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44382</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>45424</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45425</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>44865</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45443.54708333333</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>44491</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>44578</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>45301</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>45110</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>45210.7621875</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>45210</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>45143</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>44837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>45378.34151620371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>45205</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>44620.7231712963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>45352</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>44582.63854166667</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45713.34657407407</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>44846.6333912037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>44358</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45201</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>44992</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>45272.4568287037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>45721.61918981482</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>45721.62387731481</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>44515.40481481481</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>44839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20461,7 +20461,7 @@
         <v>45037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>44957.73273148148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>45672.32315972223</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45419</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>45419</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45044.63796296297</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>44251</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20865,7 +20865,7 @@
         <v>45424</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20922,7 +20922,7 @@
         <v>44363</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20979,7 +20979,7 @@
         <v>44733.48971064815</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>45443.54967592593</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>45166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44977.44368055555</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>44968.38077546296</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>45335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>44978</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>45148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>44990</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>45247</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>45244</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45393.53303240741</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45271</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>44525.34483796296</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>44267</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>45540.55361111111</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>45351</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44825</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44965</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>45162</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44935.59042824074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         <v>45559.48292824074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>45545</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44623</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44879</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45335</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44397.39152777778</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>45729.41048611111</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>44649</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>44744.68890046296</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>45315</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44844</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>45677</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45161</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45145.5899537037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>45218</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>45166.57472222222</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>45033</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44339</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>45229</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>45603.67677083334</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>45163</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>45146</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>45720.51685185185</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>45202.41581018519</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44896</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>45817.43222222223</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44266</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>45424</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>45817.40743055556</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>45817.42873842592</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>45278</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>45518.68938657407</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>45132.64674768518</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45721.46049768518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>45819.66016203703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>45161</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>45819.64758101852</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44433</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44425</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44830</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45819.64652777778</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45819.65033564815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25164,7 +25164,7 @@
         <v>45819.65243055556</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>45819.64578703704</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>45819.65145833333</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>45819.66092592593</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>45819.65354166667</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>45216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>44980</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44976</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44867</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>45821.36927083333</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>45820.56608796296</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45820</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45820.30832175926</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25940,7 +25940,7 @@
         <v>45743.70403935185</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>44529</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>45820.5670949074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45370</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>45329</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>45359.38408564815</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>45826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26478,7 +26478,7 @@
         <v>45854</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26535,7 +26535,7 @@
         <v>45258</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26597,7 +26597,7 @@
         <v>45888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         <v>45895.52841435185</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>45826.32295138889</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44510</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>45831.54910879629</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>45831.55167824074</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45070</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>45624</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27068,7 +27068,7 @@
         <v>45854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27125,7 +27125,7 @@
         <v>44678</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45831</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27239,7 +27239,7 @@
         <v>44812</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27296,7 +27296,7 @@
         <v>45831.55019675926</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>45733.69909722222</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>45008.46658564815</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27472,7 +27472,7 @@
         <v>45831.5509837963</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>45832.41319444445</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>44579</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>45705</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>45832.58648148148</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45183</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27819,7 +27819,7 @@
         <v>45897.65988425926</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45733.69351851852</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>45900.33557870371</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>45834.90304398148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>45834.81365740741</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>45379.62061342593</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44810</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>45903.38063657407</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>45685</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44310.46975694445</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28456,7 +28456,7 @@
         <v>45902</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>45834.81833333334</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28570,7 +28570,7 @@
         <v>45834.9077662037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28627,7 +28627,7 @@
         <v>45721.64368055556</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28684,7 +28684,7 @@
         <v>44620</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28741,7 +28741,7 @@
         <v>44375</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>45905.34798611111</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>45001</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>45582.36425925926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>45730.74708333334</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>44811</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>44810</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44774</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>44817</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>45841.33006944445</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29321,7 +29321,7 @@
         <v>45841.40429398148</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>45908.28657407407</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44830</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>45908.43563657408</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44965</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>45842.38688657407</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44251</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>45842.39219907407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>45842.38885416667</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>45702</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>45844.94479166667</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>45844.94641203704</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30015,7 +30015,7 @@
         <v>45842.38351851852</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>45559</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>45747.46189814815</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>45729.40054398148</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>45729.40241898148</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>45915.66289351852</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44890</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>45915.79974537037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>45741</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>45743.6546875</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>45737.43103009259</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>44904</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>44838</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>45854.54884259259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>45854.54319444444</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>44839</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>44840</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>45854</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>44711.46961805555</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>45919.43037037037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>45854.58997685185</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>44965</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>45365.46444444444</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>45860</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>45860</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>44967</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45387.57589120371</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45855</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         <v>45924.44690972222</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31723,7 +31723,7 @@
         <v>45863.31188657408</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45863</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>45924.43694444445</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>45924.43239583333</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31951,7 +31951,7 @@
         <v>44370</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         <v>44944</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32070,7 +32070,7 @@
         <v>44865</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32132,7 +32132,7 @@
         <v>45924.44197916667</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32189,7 +32189,7 @@
         <v>45855</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>44414</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>45926.60075231481</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32370,7 +32370,7 @@
         <v>44960</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45524</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45873.38168981481</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45440</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45931.72109953704</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45930</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44931.84092592593</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>44853</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>45798</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>45335</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32960,7 +32960,7 @@
         <v>45855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45931.7371412037</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>44880</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33141,7 +33141,7 @@
         <v>45166.58883101852</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33203,7 +33203,7 @@
         <v>45933.66715277778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33260,7 +33260,7 @@
         <v>45356</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33317,7 +33317,7 @@
         <v>45855</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33379,7 +33379,7 @@
         <v>45932.31585648148</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33436,7 +33436,7 @@
         <v>45096</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33493,7 +33493,7 @@
         <v>44536</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33550,7 +33550,7 @@
         <v>45933.45298611111</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45933.44259259259</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>44767.70469907407</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45855</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33793,7 +33793,7 @@
         <v>45933.47145833333</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33850,7 +33850,7 @@
         <v>45187</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33907,7 +33907,7 @@
         <v>44676</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33964,7 +33964,7 @@
         <v>45936.61704861111</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>45370</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34083,7 +34083,7 @@
         <v>45713</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34145,7 +34145,7 @@
         <v>44784</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34202,7 +34202,7 @@
         <v>45936.61511574074</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34259,7 +34259,7 @@
         <v>44553</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34321,7 +34321,7 @@
         <v>45419</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34378,7 +34378,7 @@
         <v>45882.36824074074</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         <v>44938.65421296296</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34492,7 +34492,7 @@
         <v>45937.36054398148</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>44881.66858796297</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>44825.65760416666</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>44988</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45939.65427083334</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45058.61591435185</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34844,7 +34844,7 @@
         <v>45940.59440972222</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>45943.34979166667</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45940.40561342592</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45216</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>44607.459375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45940.3683912037</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35206,7 +35206,7 @@
         <v>44964.60866898148</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>44995.58079861111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35320,7 +35320,7 @@
         <v>45938</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45945</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>44964.61883101852</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>44690</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45170</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>45702</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35662,7 +35662,7 @@
         <v>45944.52729166667</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35719,7 +35719,7 @@
         <v>44634</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35776,7 +35776,7 @@
         <v>45076</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35838,7 +35838,7 @@
         <v>45946.61488425926</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45553</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45072</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45706</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44858</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>45946.65184027778</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>45945.84612268519</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36257,7 +36257,7 @@
         <v>45945.83292824074</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45900.31365740741</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>45950.4405787037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45951.36939814815</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45350.66584490741</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>45900.34761574074</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         <v>45092</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36666,7 +36666,7 @@
         <v>45729.40546296296</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36723,7 +36723,7 @@
         <v>45098</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>44278</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         <v>44278</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36894,7 +36894,7 @@
         <v>45027</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36951,7 +36951,7 @@
         <v>45761</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37008,7 +37008,7 @@
         <v>45343.55482638889</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37070,7 +37070,7 @@
         <v>45954.27431712963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37132,7 +37132,7 @@
         <v>45820</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37194,7 +37194,7 @@
         <v>45954.42796296296</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37256,7 +37256,7 @@
         <v>45954.6296412037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>44943</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>44943</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         <v>45138</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37489,7 +37489,7 @@
         <v>44650</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
         <v>44740.79188657407</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         <v>45798</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37665,7 +37665,7 @@
         <v>45364</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37722,7 +37722,7 @@
         <v>45410</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37779,7 +37779,7 @@
         <v>44430</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>45106</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>45905.3440625</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44404</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44404</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38079,7 +38079,7 @@
         <v>44537</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44938.51252314815</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44974.44780092593</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38255,7 +38255,7 @@
         <v>44960</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>44783</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38369,7 +38369,7 @@
         <v>44977</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>44837</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>45440</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>45352</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>45352</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44998</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44837</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38788,7 +38788,7 @@
         <v>44837</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38845,7 +38845,7 @@
         <v>44988</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>45964.33553240741</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>45720.84736111111</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>45202.41826388889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>44466</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>45729.39240740741</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39192,7 +39192,7 @@
         <v>45964.43212962963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39254,7 +39254,7 @@
         <v>45964.6134837963</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39316,7 +39316,7 @@
         <v>45721.60896990741</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>45721.61415509259</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>45224</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>45224</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>45840.48537037037</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>45162</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>45075</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39720,7 +39720,7 @@
         <v>45349.71461805556</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39777,7 +39777,7 @@
         <v>45970.7487962963</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>44525</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>45384</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39948,7 +39948,7 @@
         <v>45971.59018518519</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40010,7 +40010,7 @@
         <v>45970.84542824074</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40072,7 +40072,7 @@
         <v>44957</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40129,7 +40129,7 @@
         <v>45970.82457175926</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40191,7 +40191,7 @@
         <v>45970.86018518519</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>45970.80259259259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40315,7 +40315,7 @@
         <v>44578</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>45743.69769675926</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>45743.70009259259</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40486,7 +40486,7 @@
         <v>45972.64583333334</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40548,7 +40548,7 @@
         <v>45973.70010416667</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40610,7 +40610,7 @@
         <v>44379</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40667,7 +40667,7 @@
         <v>45972.34512731482</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40729,7 +40729,7 @@
         <v>45972.37108796297</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         <v>45729.41755787037</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         <v>45112</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40900,7 +40900,7 @@
         <v>44936.74096064815</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>45603.67597222222</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41019,7 +41019,7 @@
         <v>45974.64811342592</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41081,7 +41081,7 @@
         <v>45974.27130787037</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44475.45990740741</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44936</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>45979.3952662037</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44445</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>45978.38457175926</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41438,7 +41438,7 @@
         <v>45978</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41495,7 +41495,7 @@
         <v>45978</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41552,7 +41552,7 @@
         <v>45721.65471064814</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>45328</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         <v>45980.30935185185</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         <v>45980.329375</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41785,7 +41785,7 @@
         <v>45982.7109375</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41847,7 +41847,7 @@
         <v>44414.37789351852</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41904,7 +41904,7 @@
         <v>45982.28105324074</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41966,7 +41966,7 @@
         <v>45982</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42023,7 +42023,7 @@
         <v>45604.60871527778</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42080,7 +42080,7 @@
         <v>45329</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42137,7 +42137,7 @@
         <v>44425</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42194,7 +42194,7 @@
         <v>45414.52494212963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42251,7 +42251,7 @@
         <v>45985.67518518519</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42308,7 +42308,7 @@
         <v>45986.7494212963</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42370,7 +42370,7 @@
         <v>45986.56260416667</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         <v>45986.51681712963</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42484,7 +42484,7 @@
         <v>45986.5222337963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42541,7 +42541,7 @@
         <v>45986.51385416667</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42598,7 +42598,7 @@
         <v>45986.52648148148</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42655,7 +42655,7 @@
         <v>45987.47385416667</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42717,7 +42717,7 @@
         <v>45985.67907407408</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42774,7 +42774,7 @@
         <v>45986.74057870371</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42836,7 +42836,7 @@
         <v>45986.5184837963</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>45986.5219212963</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>44616.86403935185</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43007,7 +43007,7 @@
         <v>45989.49159722222</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43064,7 +43064,7 @@
         <v>44645.64319444444</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43121,7 +43121,7 @@
         <v>45989.71277777778</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43183,7 +43183,7 @@
         <v>45916.43809027778</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43240,7 +43240,7 @@
         <v>44593</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         <v>45989.48905092593</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43374,7 +43374,7 @@
         <v>45987.61929398148</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43436,7 +43436,7 @@
         <v>45993.35203703704</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43498,7 +43498,7 @@
         <v>44468</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43555,7 +43555,7 @@
         <v>45630.56158564815</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43612,7 +43612,7 @@
         <v>45993.57234953704</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43669,7 +43669,7 @@
         <v>44698</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43726,7 +43726,7 @@
         <v>45603</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>45603</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>44727</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45993.55981481481</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>45993.56157407408</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45931</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>44549.75226851852</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45993.37518518518</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44197,7 +44197,7 @@
         <v>46034.58453703704</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>45993.56743055556</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44316,7 +44316,7 @@
         <v>45029</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>46036.68469907407</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44430,7 +44430,7 @@
         <v>45061</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44492,7 +44492,7 @@
         <v>45061</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44549,7 +44549,7 @@
         <v>46036.80012731482</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44606,7 +44606,7 @@
         <v>44579</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44663,7 +44663,7 @@
         <v>46036.39115740741</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>45461</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44782,7 +44782,7 @@
         <v>44517</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44839,7 +44839,7 @@
         <v>45090</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44896,7 +44896,7 @@
         <v>45210</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44953,7 +44953,7 @@
         <v>45419</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45010,7 +45010,7 @@
         <v>46041.85635416667</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45072,7 +45072,7 @@
         <v>45343</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45134,7 +45134,7 @@
         <v>45999.47252314815</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45191,7 +45191,7 @@
         <v>45149</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>45373.48542824074</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45310,7 +45310,7 @@
         <v>45418</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>45418</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45434,7 +45434,7 @@
         <v>45660</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45491,7 +45491,7 @@
         <v>45603</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45548,7 +45548,7 @@
         <v>44475</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45605,7 +45605,7 @@
         <v>44475</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45662,7 +45662,7 @@
         <v>45999</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45724,7 +45724,7 @@
         <v>45999.45918981481</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45781,7 +45781,7 @@
         <v>44579</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45838,7 +45838,7 @@
         <v>45999</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45900,7 +45900,7 @@
         <v>44336</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45957,7 +45957,7 @@
         <v>45398</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46014,7 +46014,7 @@
         <v>46043.5558912037</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46071,7 +46071,7 @@
         <v>45143</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45558.32922453704</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46190,7 +46190,7 @@
         <v>45978</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46252,7 +46252,7 @@
         <v>46041.87228009259</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46314,7 +46314,7 @@
         <v>44916.67027777778</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>45166</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46433,7 +46433,7 @@
         <v>46001.40962962963</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46495,7 +46495,7 @@
         <v>46043.55282407408</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46552,7 +46552,7 @@
         <v>46043.60672453704</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46609,7 +46609,7 @@
         <v>46042</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46666,7 +46666,7 @@
         <v>45348</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46723,7 +46723,7 @@
         <v>45327</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46785,7 +46785,7 @@
         <v>46045.43084490741</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46842,7 +46842,7 @@
         <v>46003</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46899,7 +46899,7 @@
         <v>44812</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45279</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47013,7 +47013,7 @@
         <v>44432</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47070,7 +47070,7 @@
         <v>44960</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47127,7 +47127,7 @@
         <v>44960</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47184,7 +47184,7 @@
         <v>45435</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47246,7 +47246,7 @@
         <v>45604.61385416667</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47303,7 +47303,7 @@
         <v>45630.55130787037</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47360,7 +47360,7 @@
         <v>46007</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47417,7 +47417,7 @@
         <v>46049.67630787037</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47474,7 +47474,7 @@
         <v>46049.67348379629</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47531,7 +47531,7 @@
         <v>46049.68626157408</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47588,7 +47588,7 @@
         <v>45546.34533564815</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47650,7 +47650,7 @@
         <v>45741</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47712,7 +47712,7 @@
         <v>44879</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47774,7 +47774,7 @@
         <v>46007</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47831,7 +47831,7 @@
         <v>46006.43814814815</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47893,7 +47893,7 @@
         <v>44783</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47950,7 +47950,7 @@
         <v>46007</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48007,7 +48007,7 @@
         <v>44858</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48064,7 +48064,7 @@
         <v>46049.66806712963</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48121,7 +48121,7 @@
         <v>46049.67916666667</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48178,7 +48178,7 @@
         <v>45911</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48240,7 +48240,7 @@
         <v>46006.43637731481</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48302,7 +48302,7 @@
         <v>46050.46560185185</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48359,7 +48359,7 @@
         <v>46009.37207175926</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48416,7 +48416,7 @@
         <v>44942</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48473,7 +48473,7 @@
         <v>44294</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48530,7 +48530,7 @@
         <v>44294</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48592,7 +48592,7 @@
         <v>45056</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48649,7 +48649,7 @@
         <v>46009.36378472222</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         <v>44430</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48768,7 +48768,7 @@
         <v>46050.46745370371</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48825,7 +48825,7 @@
         <v>44911</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48882,7 +48882,7 @@
         <v>45005.33341435185</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48939,7 +48939,7 @@
         <v>44530</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48996,7 +48996,7 @@
         <v>44959</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49053,7 +49053,7 @@
         <v>45162</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49115,7 +49115,7 @@
         <v>44755</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49172,7 +49172,7 @@
         <v>44938</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49229,7 +49229,7 @@
         <v>45712.46146990741</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49291,7 +49291,7 @@
         <v>45085</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49353,7 +49353,7 @@
         <v>44790.56490740741</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49410,7 +49410,7 @@
         <v>46010.59240740741</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49467,7 +49467,7 @@
         <v>45069</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49529,7 +49529,7 @@
         <v>46013</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         <v>46013</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49643,7 +49643,7 @@
         <v>45474.63457175926</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49700,7 +49700,7 @@
         <v>46010.63642361111</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49757,7 +49757,7 @@
         <v>46010.5390625</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49814,7 +49814,7 @@
         <v>45624</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49871,7 +49871,7 @@
         <v>46053.32077546296</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49928,7 +49928,7 @@
         <v>44992</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49985,7 +49985,7 @@
         <v>45530</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50042,7 +50042,7 @@
         <v>44419</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50099,7 +50099,7 @@
         <v>44798</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50156,7 +50156,7 @@
         <v>44728.40604166667</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50213,7 +50213,7 @@
         <v>45674</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50270,7 +50270,7 @@
         <v>44799</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50327,7 +50327,7 @@
         <v>46055</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50384,7 +50384,7 @@
         <v>44881</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50441,7 +50441,7 @@
         <v>45148</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50498,7 +50498,7 @@
         <v>44525.90890046296</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50555,7 +50555,7 @@
         <v>44525.9234375</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50612,7 +50612,7 @@
         <v>44846.63041666667</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50669,7 +50669,7 @@
         <v>45222</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50731,7 +50731,7 @@
         <v>45202.41700231482</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50788,7 +50788,7 @@
         <v>44960.37513888889</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50845,7 +50845,7 @@
         <v>44960.4335300926</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50902,7 +50902,7 @@
         <v>44575</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50959,7 +50959,7 @@
         <v>45546.32984953704</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         <v>45019.65358796297</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51078,7 +51078,7 @@
         <v>45051</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51140,7 +51140,7 @@
         <v>45146</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51202,7 +51202,7 @@
         <v>45174</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51264,7 +51264,7 @@
         <v>45307</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51326,7 +51326,7 @@
         <v>44938.52150462963</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51383,7 +51383,7 @@
         <v>46058</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51440,7 +51440,7 @@
         <v>44938.45053240741</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51497,7 +51497,7 @@
         <v>45978</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51559,7 +51559,7 @@
         <v>45330</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51616,7 +51616,7 @@
         <v>45075</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51678,7 +51678,7 @@
         <v>44725</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51735,7 +51735,7 @@
         <v>44606</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51797,7 +51797,7 @@
         <v>44525.48533564815</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         <v>45110</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51916,7 +51916,7 @@
         <v>45733.61880787037</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51978,7 +51978,7 @@
         <v>46027.44545138889</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52035,7 +52035,7 @@
         <v>44575.41842592593</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52092,7 +52092,7 @@
         <v>44879</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52154,7 +52154,7 @@
         <v>45096</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52216,7 +52216,7 @@
         <v>44958</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52273,7 +52273,7 @@
         <v>46071</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52330,7 +52330,7 @@
         <v>45986</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52387,7 +52387,7 @@
         <v>44946</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52444,7 +52444,7 @@
         <v>45166</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52506,7 +52506,7 @@
         <v>44494</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52563,7 +52563,7 @@
         <v>44435.57420138889</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52620,7 +52620,7 @@
         <v>46069.58393518518</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52677,7 +52677,7 @@
         <v>45110</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52734,7 +52734,7 @@
         <v>44430</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52791,7 +52791,7 @@
         <v>45114</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52848,7 +52848,7 @@
         <v>44456</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52905,7 +52905,7 @@
         <v>45170</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52962,7 +52962,7 @@
         <v>44901.48960648148</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53024,7 +53024,7 @@
         <v>46030.60493055556</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53081,7 +53081,7 @@
         <v>44350</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53138,7 +53138,7 @@
         <v>46071</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53195,7 +53195,7 @@
         <v>45762.87655092592</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53252,7 +53252,7 @@
         <v>46030.34722222222</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53314,7 +53314,7 @@
         <v>46030.33498842592</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53376,7 +53376,7 @@
         <v>46030</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53438,7 +53438,7 @@
         <v>46071</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53495,7 +53495,7 @@
         <v>44382</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53557,7 +53557,7 @@
         <v>44649</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53614,7 +53614,7 @@
         <v>44462</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53676,7 +53676,7 @@
         <v>44944</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53738,7 +53738,7 @@
         <v>45520</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53795,7 +53795,7 @@
         <v>44293</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53852,7 +53852,7 @@
         <v>46030.60665509259</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53909,7 +53909,7 @@
         <v>46030.61884259259</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53966,7 +53966,7 @@
         <v>44497</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54023,7 +54023,7 @@
         <v>46072</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54080,7 +54080,7 @@
         <v>44496</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54137,7 +54137,7 @@
         <v>44774</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54194,7 +54194,7 @@
         <v>45564</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54251,7 +54251,7 @@
         <v>45452</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54308,7 +54308,7 @@
         <v>45685</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54370,7 +54370,7 @@
         <v>45685.31189814815</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54432,7 +54432,7 @@
         <v>45441.52587962963</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54489,7 +54489,7 @@
         <v>45537</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54551,7 +54551,7 @@
         <v>45667</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54608,7 +54608,7 @@
         <v>44784</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54670,7 +54670,7 @@
         <v>45098</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54727,7 +54727,7 @@
         <v>45756</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54789,7 +54789,7 @@
         <v>45044</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54846,7 +54846,7 @@
         <v>45044.60363425926</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54908,7 +54908,7 @@
         <v>45385</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54965,7 +54965,7 @@
         <v>45062</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55022,7 +55022,7 @@
         <v>45289</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55079,7 +55079,7 @@
         <v>44536</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55136,7 +55136,7 @@
         <v>45107</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55193,7 +55193,7 @@
         <v>44869</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55250,7 +55250,7 @@
         <v>44546</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -55307,7 +55307,7 @@
         <v>44362</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -55364,7 +55364,7 @@
         <v>44893.39328703703</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         <v>45350</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55483,7 +55483,7 @@
         <v>44976</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55540,7 +55540,7 @@
         <v>45602.35326388889</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55597,7 +55597,7 @@
         <v>44452</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55659,7 +55659,7 @@
         <v>44585.39070601852</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55716,7 +55716,7 @@
         <v>44334</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55773,7 +55773,7 @@
         <v>45098</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55830,7 +55830,7 @@
         <v>45098</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55887,7 +55887,7 @@
         <v>44960</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55944,7 +55944,7 @@
         <v>45559</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56001,7 +56001,7 @@
         <v>45370</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56063,7 +56063,7 @@
         <v>44757</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -56125,7 +56125,7 @@
         <v>45181</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -56182,7 +56182,7 @@
         <v>45329</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -56239,7 +56239,7 @@
         <v>45218</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -56296,7 +56296,7 @@
         <v>45603.69104166667</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -56358,7 +56358,7 @@
         <v>45747</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -56420,7 +56420,7 @@
         <v>44452</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56477,7 +56477,7 @@
         <v>45350</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56534,7 +56534,7 @@
         <v>45713</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56596,7 +56596,7 @@
         <v>44949</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56653,7 +56653,7 @@
         <v>45243</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56715,7 +56715,7 @@
         <v>45555.40415509259</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56772,7 +56772,7 @@
         <v>44784.53177083333</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56829,7 +56829,7 @@
         <v>44462</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56891,7 +56891,7 @@
         <v>44546</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56953,7 +56953,7 @@
         <v>44812</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -57010,7 +57010,7 @@
         <v>44477</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -57067,7 +57067,7 @@
         <v>45705</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -57124,7 +57124,7 @@
         <v>44364</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -57181,7 +57181,7 @@
         <v>44364</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -57238,7 +57238,7 @@
         <v>44575</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -57295,7 +57295,7 @@
         <v>45132</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -57357,7 +57357,7 @@
         <v>45132.61612268518</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -57419,7 +57419,7 @@
         <v>44579</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57476,7 +57476,7 @@
         <v>45224</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57533,7 +57533,7 @@
         <v>45062</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57590,7 +57590,7 @@
         <v>45306</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57647,7 +57647,7 @@
         <v>44910.40516203704</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57704,7 +57704,7 @@
         <v>44363</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57761,7 +57761,7 @@
         <v>44869</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57823,7 +57823,7 @@
         <v>45261</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57885,7 +57885,7 @@
         <v>44425</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57942,7 +57942,7 @@
         <v>44938.64399305556</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -57999,7 +57999,7 @@
         <v>44893</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -58061,7 +58061,7 @@
         <v>45398.425</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -58118,7 +58118,7 @@
         <v>44575</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -58175,7 +58175,7 @@
         <v>45628</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -58237,7 +58237,7 @@
         <v>45062</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -58294,7 +58294,7 @@
         <v>45310</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -58356,7 +58356,7 @@
         <v>44652</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -58413,7 +58413,7 @@
         <v>44950</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -58470,7 +58470,7 @@
         <v>44977</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -58532,7 +58532,7 @@
         <v>44932</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -58589,7 +58589,7 @@
         <v>44932</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -58646,7 +58646,7 @@
         <v>45715.37094907407</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -58703,7 +58703,7 @@
         <v>45706</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -58765,7 +58765,7 @@
         <v>45173</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -58822,7 +58822,7 @@
         <v>44880</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -58884,7 +58884,7 @@
         <v>45040</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -58941,7 +58941,7 @@
         <v>45660.70398148148</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -58998,7 +58998,7 @@
         <v>44725</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -59055,7 +59055,7 @@
         <v>44784</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -59112,7 +59112,7 @@
         <v>45029</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -59169,7 +59169,7 @@
         <v>45288</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -59226,7 +59226,7 @@
         <v>44858</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -59288,7 +59288,7 @@
         <v>44968</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -59345,7 +59345,7 @@
         <v>45160</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -59407,7 +59407,7 @@
         <v>45160</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -59469,7 +59469,7 @@
         <v>45686</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -59526,7 +59526,7 @@
         <v>45727.35582175926</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -59583,7 +59583,7 @@
         <v>45365.46865740741</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -59640,7 +59640,7 @@
         <v>44364</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -59697,7 +59697,7 @@
         <v>45335</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -59759,7 +59759,7 @@
         <v>45306</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -59821,7 +59821,7 @@
         <v>45288</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -59878,7 +59878,7 @@
         <v>45547</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -59935,7 +59935,7 @@
         <v>44995</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -59992,7 +59992,7 @@
         <v>45448.52920138889</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -60049,7 +60049,7 @@
         <v>44581</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -60106,7 +60106,7 @@
         <v>45148</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -60163,7 +60163,7 @@
         <v>45712.63317129629</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -60225,7 +60225,7 @@
         <v>44371</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -60282,7 +60282,7 @@
         <v>45741</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -60344,7 +60344,7 @@
         <v>44725</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -60401,7 +60401,7 @@
         <v>44966</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -60463,7 +60463,7 @@
         <v>44540.69231481481</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -60520,7 +60520,7 @@
         <v>44433</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -60577,7 +60577,7 @@
         <v>45034</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -60634,7 +60634,7 @@
         <v>44830</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -60691,7 +60691,7 @@
         <v>45153</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -60753,7 +60753,7 @@
         <v>44489</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -60810,7 +60810,7 @@
         <v>45645.62415509259</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -60872,7 +60872,7 @@
         <v>45775</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -60934,7 +60934,7 @@
         <v>45190.53902777778</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -60996,7 +60996,7 @@
         <v>44968.39174768519</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -61053,7 +61053,7 @@
         <v>45781.83173611111</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -61110,7 +61110,7 @@
         <v>45775</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -61172,7 +61172,7 @@
         <v>44384</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -61229,7 +61229,7 @@
         <v>45635.46380787037</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -61286,7 +61286,7 @@
         <v>45524</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -61343,7 +61343,7 @@
         <v>45637.46026620371</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -61400,7 +61400,7 @@
         <v>44430</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -61457,7 +61457,7 @@
         <v>45624.38962962963</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -61514,7 +61514,7 @@
         <v>45789.54369212963</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -61571,7 +61571,7 @@
         <v>45789.53918981482</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -61628,7 +61628,7 @@
         <v>45793.50888888889</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -61690,7 +61690,7 @@
         <v>45611.48289351852</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -61747,7 +61747,7 @@
         <v>45239</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -61804,7 +61804,7 @@
         <v>45803.28027777778</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -61861,7 +61861,7 @@
         <v>45801.4565162037</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -61918,7 +61918,7 @@
         <v>45802</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -61975,7 +61975,7 @@
         <v>45730.51428240741</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -62032,7 +62032,7 @@
         <v>45672</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -62089,7 +62089,7 @@
         <v>45810.48511574074</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -62146,7 +62146,7 @@
         <v>45810.49662037037</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -62203,7 +62203,7 @@
         <v>45813.38466435186</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -62265,7 +62265,7 @@
         <v>45813</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -62327,7 +62327,7 @@
         <v>45813</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -62389,7 +62389,7 @@
         <v>45733</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -62451,7 +62451,7 @@
         <v>45817.43488425926</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -62513,7 +62513,7 @@
         <v>45817.30131944444</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -62575,7 +62575,7 @@
         <v>45817.52033564815</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
